--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-22.xlsx
@@ -762,16 +762,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G2" t="n">
         <v>2.68</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I2" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
         <v>3.25</v>
@@ -810,7 +810,7 @@
         <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W2" t="n">
         <v>1.59</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="Q3" t="n">
         <v>1.01</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
         <v>4.3</v>
       </c>
       <c r="G4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H4" t="n">
         <v>1.85</v>
@@ -1168,7 +1168,7 @@
         <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1180,13 +1180,13 @@
         <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q4" t="n">
         <v>1.72</v>
       </c>
       <c r="R4" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
         <v>2.8</v>
@@ -1204,116 +1204,116 @@
         <v>1.27</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO4" t="n">
         <v>9.6</v>
       </c>
       <c r="AP4" t="n">
-        <v>7.6</v>
+        <v>17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AR4" t="n">
         <v>11</v>
       </c>
       <c r="AS4" t="n">
-        <v>7.4</v>
+        <v>18.5</v>
       </c>
       <c r="AT4" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AV4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AW4" t="n">
-        <v>7.2</v>
+        <v>16</v>
       </c>
       <c r="AX4" t="n">
-        <v>8.6</v>
+        <v>32</v>
       </c>
       <c r="AY4" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AZ4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="BA4" t="n">
-        <v>8.6</v>
+        <v>26</v>
       </c>
       <c r="BB4" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="BC4" t="n">
-        <v>9.4</v>
+        <v>44</v>
       </c>
       <c r="BD4" t="n">
-        <v>9.4</v>
+        <v>44</v>
       </c>
       <c r="BE4" t="n">
-        <v>9.800000000000001</v>
+        <v>48</v>
       </c>
       <c r="BF4" t="n">
-        <v>9.199999999999999</v>
+        <v>36</v>
       </c>
       <c r="BG4" t="n">
         <v>8.6</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -1350,19 +1350,19 @@
         <v>1.91</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J5" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1386,128 +1386,128 @@
         <v>1.82</v>
       </c>
       <c r="T5" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="U5" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="V5" t="n">
         <v>1.35</v>
       </c>
       <c r="W5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X5" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y5" t="n">
         <v>34</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB5" t="n">
         <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD5" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ5" t="n">
         <v>25</v>
       </c>
       <c r="AK5" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM5" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AN5" t="n">
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AQ5" t="n">
-        <v>7.6</v>
+        <v>30</v>
       </c>
       <c r="AR5" t="n">
-        <v>7.8</v>
+        <v>34</v>
       </c>
       <c r="AS5" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="AT5" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AU5" t="n">
         <v>11.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AW5" t="n">
-        <v>7.8</v>
+        <v>30</v>
       </c>
       <c r="AX5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY5" t="n">
         <v>11</v>
       </c>
       <c r="AZ5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BA5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC5" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="BD5" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BE5" t="n">
-        <v>7.8</v>
+        <v>34</v>
       </c>
       <c r="BF5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="BG5" t="n">
         <v>13.5</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -2896,22 +2896,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="G13" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="I13" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>3.65</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2926,10 +2926,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -3287,10 +3287,10 @@
         <v>2.32</v>
       </c>
       <c r="G15" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H15" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
         <v>3.95</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
         <v>4.7</v>
       </c>
       <c r="G18" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="H18" t="n">
         <v>1.73</v>
@@ -3899,7 +3899,7 @@
         <v>1.53</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R18" t="n">
         <v>1.17</v>
@@ -3917,7 +3917,7 @@
         <v>1.87</v>
       </c>
       <c r="W18" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="X18" t="n">
         <v>12.5</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -4060,22 +4060,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="G19" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="I19" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J19" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -4090,10 +4090,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
         <v>2.24</v>
       </c>
       <c r="G20" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H20" t="n">
         <v>3.1</v>
@@ -4266,10 +4266,10 @@
         <v>3.4</v>
       </c>
       <c r="J20" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.31</v>
+        <v>1.64</v>
       </c>
       <c r="G23" t="n">
         <v>1.77</v>
@@ -4845,13 +4845,13 @@
         <v>2.38</v>
       </c>
       <c r="I23" t="n">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
         <v>4.1</v>
       </c>
       <c r="K23" t="n">
-        <v>60</v>
+        <v>4.9</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -6003,10 +6003,10 @@
         <v>1.75</v>
       </c>
       <c r="G29" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="H29" t="n">
-        <v>4.6</v>
+        <v>1.04</v>
       </c>
       <c r="I29" t="n">
         <v>5.1</v>
@@ -6030,10 +6030,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -6194,13 +6194,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G30" t="n">
         <v>3.6</v>
       </c>
       <c r="H30" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="I30" t="n">
         <v>2.62</v>
@@ -6224,10 +6224,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -6388,22 +6388,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="H31" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="I31" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="J31" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K31" t="n">
-        <v>5.9</v>
+        <v>3.85</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -6418,10 +6418,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -6582,13 +6582,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="G32" t="n">
         <v>1.74</v>
       </c>
       <c r="H32" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I32" t="n">
         <v>5.8</v>
@@ -6612,10 +6612,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -6970,22 +6970,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="G34" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="H34" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="I34" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="J34" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="K34" t="n">
-        <v>6.8</v>
+        <v>4.4</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -7003,7 +7003,7 @@
         <v>2.26</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -7167,7 +7167,7 @@
         <v>2.6</v>
       </c>
       <c r="G35" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H35" t="n">
         <v>3.15</v>
@@ -7233,7 +7233,7 @@
         <v>10</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD35" t="n">
         <v>13.5</v>
@@ -7284,7 +7284,7 @@
         <v>27</v>
       </c>
       <c r="AT35" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AU35" t="n">
         <v>6.8</v>
@@ -7308,7 +7308,7 @@
         <v>29</v>
       </c>
       <c r="BB35" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="BC35" t="n">
         <v>24</v>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -7946,16 +7946,16 @@
         <v>5.1</v>
       </c>
       <c r="H39" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="I39" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="J39" t="n">
         <v>3.45</v>
       </c>
       <c r="K39" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -7973,7 +7973,7 @@
         <v>1.25</v>
       </c>
       <c r="Q39" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -8134,7 +8134,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="G40" t="n">
         <v>7.2</v>
@@ -8143,7 +8143,7 @@
         <v>1.69</v>
       </c>
       <c r="I40" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="J40" t="n">
         <v>3.5</v>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -8385,7 +8385,7 @@
         <v>15</v>
       </c>
       <c r="Y41" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z41" t="n">
         <v>17</v>
@@ -8403,7 +8403,7 @@
         <v>12.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF41" t="n">
         <v>23</v>
@@ -8445,7 +8445,7 @@
         <v>14</v>
       </c>
       <c r="AS41" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AT41" t="n">
         <v>11.5</v>
@@ -8463,35 +8463,35 @@
         <v>18.5</v>
       </c>
       <c r="AY41" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AZ41" t="n">
         <v>14.5</v>
       </c>
       <c r="BA41" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="BB41" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="BC41" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BD41" t="n">
-        <v>8.199999999999999</v>
+        <v>36</v>
       </c>
       <c r="BE41" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="BF41" t="n">
-        <v>7.6</v>
+        <v>25</v>
       </c>
       <c r="BG41" t="n">
         <v>17.5</v>
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -8525,7 +8525,7 @@
         <v>2.86</v>
       </c>
       <c r="G42" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H42" t="n">
         <v>2.8</v>
@@ -8594,7 +8594,7 @@
         <v>7.2</v>
       </c>
       <c r="AD42" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE42" t="n">
         <v>36</v>
@@ -8639,13 +8639,13 @@
         <v>16</v>
       </c>
       <c r="AS42" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AT42" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AU42" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AV42" t="n">
         <v>11.5</v>
@@ -8675,17 +8675,17 @@
         <v>44</v>
       </c>
       <c r="BE42" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="BF42" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BG42" t="n">
         <v>30</v>
       </c>
       <c r="BH42" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -8752,7 +8752,7 @@
         <v>1.76</v>
       </c>
       <c r="R43" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S43" t="n">
         <v>2.94</v>
@@ -8836,7 +8836,7 @@
         <v>19</v>
       </c>
       <c r="AT43" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AU43" t="n">
         <v>8.6</v>
@@ -8879,7 +8879,7 @@
       </c>
       <c r="BH43" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -8949,7 +8949,7 @@
         <v>1.37</v>
       </c>
       <c r="S44" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T44" t="n">
         <v>2.02</v>
@@ -8991,7 +8991,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AG44" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH44" t="n">
         <v>23</v>
@@ -9027,7 +9027,7 @@
         <v>38</v>
       </c>
       <c r="AS44" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AT44" t="n">
         <v>7.6</v>
@@ -9039,7 +9039,7 @@
         <v>19.5</v>
       </c>
       <c r="AW44" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AX44" t="n">
         <v>8.800000000000001</v>
@@ -9073,7 +9073,7 @@
       </c>
       <c r="BH44" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -9104,22 +9104,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H45" t="n">
-        <v>2.44</v>
+        <v>2.58</v>
       </c>
       <c r="I45" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J45" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="K45" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -9267,7 +9267,7 @@
       </c>
       <c r="BH45" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -9301,10 +9301,10 @@
         <v>1.66</v>
       </c>
       <c r="G46" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="H46" t="n">
-        <v>2.1</v>
+        <v>1.09</v>
       </c>
       <c r="I46" t="n">
         <v>8.4</v>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="BH46" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -9492,10 +9492,10 @@
         </is>
       </c>
       <c r="F47" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G47" t="n">
         <v>2.06</v>
-      </c>
-      <c r="G47" t="n">
-        <v>2.1</v>
       </c>
       <c r="H47" t="n">
         <v>4.3</v>
@@ -9522,7 +9522,7 @@
         <v>1.31</v>
       </c>
       <c r="P47" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q47" t="n">
         <v>1.97</v>
@@ -9561,7 +9561,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC47" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD47" t="n">
         <v>18</v>
@@ -9627,10 +9627,10 @@
         <v>12</v>
       </c>
       <c r="AY47" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AZ47" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BA47" t="n">
         <v>48</v>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="BH47" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="BH48" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -9904,16 +9904,16 @@
         <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="O49" t="n">
         <v>1.33</v>
       </c>
       <c r="P49" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R49" t="n">
         <v>1.26</v>
@@ -10043,7 +10043,7 @@
       </c>
       <c r="BH49" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -10098,28 +10098,28 @@
         <v>1.04</v>
       </c>
       <c r="N50" t="n">
-        <v>1.03</v>
+        <v>4.9</v>
       </c>
       <c r="O50" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P50" t="n">
-        <v>1.49</v>
+        <v>2.38</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="R50" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="S50" t="n">
-        <v>2.3</v>
+        <v>2.54</v>
       </c>
       <c r="T50" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U50" t="n">
         <v>1.9</v>
-      </c>
-      <c r="U50" t="n">
-        <v>1.92</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -10237,7 +10237,7 @@
       </c>
       <c r="BH50" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -10268,13 +10268,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="G51" t="n">
         <v>1.54</v>
       </c>
       <c r="H51" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I51" t="n">
         <v>7.6</v>
@@ -10298,7 +10298,7 @@
         <v>1.18</v>
       </c>
       <c r="P51" t="n">
-        <v>1.84</v>
+        <v>2.52</v>
       </c>
       <c r="Q51" t="n">
         <v>1.18</v>
@@ -10406,7 +10406,7 @@
         <v>8.6</v>
       </c>
       <c r="AZ51" t="n">
-        <v>4.7</v>
+        <v>17.5</v>
       </c>
       <c r="BA51" t="n">
         <v>5.5</v>
@@ -10415,7 +10415,7 @@
         <v>12</v>
       </c>
       <c r="BC51" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="BD51" t="n">
         <v>25</v>
@@ -10431,7 +10431,7 @@
       </c>
       <c r="BH51" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -10471,7 +10471,7 @@
         <v>1.55</v>
       </c>
       <c r="I52" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="J52" t="n">
         <v>4.7</v>
@@ -10492,10 +10492,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>2.44</v>
+        <v>2.76</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -10625,7 +10625,7 @@
       </c>
       <c r="BH52" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -10819,7 +10819,7 @@
       </c>
       <c r="BH53" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -11013,7 +11013,7 @@
       </c>
       <c r="BH54" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -11077,7 +11077,7 @@
         <v>1.25</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -11207,7 +11207,7 @@
       </c>
       <c r="BH55" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -11268,10 +11268,10 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="BH56" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -11444,7 +11444,7 @@
         <v>26</v>
       </c>
       <c r="J57" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="K57" t="n">
         <v>13.5</v>
@@ -11468,7 +11468,7 @@
         <v>1.24</v>
       </c>
       <c r="R57" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="S57" t="n">
         <v>1.63</v>
@@ -11477,7 +11477,7 @@
         <v>1.95</v>
       </c>
       <c r="U57" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -11504,7 +11504,7 @@
         <v>36</v>
       </c>
       <c r="AD57" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE57" t="n">
         <v>360</v>
@@ -11522,7 +11522,7 @@
         <v>1000</v>
       </c>
       <c r="AJ57" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK57" t="n">
         <v>13</v>
@@ -11546,7 +11546,7 @@
         <v>38</v>
       </c>
       <c r="AR57" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AS57" t="n">
         <v>60</v>
@@ -11561,7 +11561,7 @@
         <v>34</v>
       </c>
       <c r="AW57" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AX57" t="n">
         <v>10</v>
@@ -11595,7 +11595,7 @@
       </c>
       <c r="BH57" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="BH58" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -11983,7 +11983,7 @@
       </c>
       <c r="BH59" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
         <v>2.04</v>
       </c>
       <c r="G60" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H60" t="n">
         <v>3.6</v>
@@ -12047,7 +12047,7 @@
         <v>2.32</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
@@ -12177,7 +12177,7 @@
       </c>
       <c r="BH60" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -12214,7 +12214,7 @@
         <v>1.6</v>
       </c>
       <c r="H61" t="n">
-        <v>1.04</v>
+        <v>5.6</v>
       </c>
       <c r="I61" t="n">
         <v>1000</v>
@@ -12223,7 +12223,7 @@
         <v>1.01</v>
       </c>
       <c r="K61" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -12371,7 +12371,7 @@
       </c>
       <c r="BH61" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -12402,22 +12402,22 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G62" t="n">
         <v>1000</v>
       </c>
       <c r="H62" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="I62" t="n">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="J62" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="K62" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -12432,10 +12432,10 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>1.02</v>
+        <v>1.84</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -12565,7 +12565,7 @@
       </c>
       <c r="BH62" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -12596,16 +12596,16 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G63" t="n">
         <v>2.82</v>
       </c>
       <c r="H63" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="I63" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="J63" t="n">
         <v>3.65</v>
@@ -12629,7 +12629,7 @@
         <v>2.2</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -12759,7 +12759,7 @@
       </c>
       <c r="BH63" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -12790,7 +12790,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G64" t="n">
         <v>2.22</v>
@@ -12817,7 +12817,7 @@
         <v>4.1</v>
       </c>
       <c r="O64" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P64" t="n">
         <v>2.06</v>
@@ -12826,7 +12826,7 @@
         <v>1.87</v>
       </c>
       <c r="R64" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S64" t="n">
         <v>3.2</v>
@@ -12904,7 +12904,7 @@
         <v>13</v>
       </c>
       <c r="AR64" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS64" t="n">
         <v>11</v>
@@ -12940,7 +12940,7 @@
         <v>19.5</v>
       </c>
       <c r="BD64" t="n">
-        <v>9.4</v>
+        <v>29</v>
       </c>
       <c r="BE64" t="n">
         <v>11</v>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="BH64" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -13014,10 +13014,10 @@
         <v>1.41</v>
       </c>
       <c r="P65" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R65" t="n">
         <v>1.29</v>
@@ -13147,7 +13147,7 @@
       </c>
       <c r="BH65" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -13178,22 +13178,22 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="G66" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="H66" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="I66" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="J66" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K66" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -13202,28 +13202,28 @@
         <v>1.08</v>
       </c>
       <c r="N66" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O66" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P66" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q66" t="n">
         <v>2.1</v>
       </c>
       <c r="R66" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S66" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T66" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U66" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -13238,13 +13238,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="Z66" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA66" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AB66" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AC66" t="n">
         <v>8.199999999999999</v>
@@ -13253,95 +13253,95 @@
         <v>10.5</v>
       </c>
       <c r="AE66" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF66" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AG66" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AH66" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI66" t="n">
         <v>42</v>
       </c>
       <c r="AJ66" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AK66" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL66" t="n">
         <v>70</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>75</v>
       </c>
       <c r="AM66" t="n">
         <v>150</v>
       </c>
       <c r="AN66" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AO66" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP66" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AQ66" t="n">
         <v>7.4</v>
       </c>
       <c r="AR66" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AT66" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AU66" t="n">
         <v>7.4</v>
       </c>
       <c r="AV66" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AW66" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AX66" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AY66" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AZ66" t="n">
         <v>18</v>
       </c>
       <c r="BA66" t="n">
-        <v>10.5</v>
+        <v>34</v>
       </c>
       <c r="BB66" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>44</v>
+      </c>
+      <c r="BD66" t="n">
         <v>12.5</v>
       </c>
-      <c r="BC66" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BD66" t="n">
-        <v>11.5</v>
-      </c>
       <c r="BE66" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF66" t="n">
         <v>12.5</v>
       </c>
-      <c r="BF66" t="n">
-        <v>12</v>
-      </c>
       <c r="BG66" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="BH66" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -13535,7 +13535,7 @@
       </c>
       <c r="BH67" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="BH68" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -13763,16 +13763,16 @@
         <v>1.58</v>
       </c>
       <c r="G69" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="H69" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I69" t="n">
         <v>1000</v>
       </c>
       <c r="J69" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="K69" t="n">
         <v>1000</v>
@@ -13923,7 +13923,7 @@
       </c>
       <c r="BH69" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -14117,7 +14117,7 @@
       </c>
       <c r="BH70" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -14311,7 +14311,7 @@
       </c>
       <c r="BH71" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -14381,7 +14381,7 @@
         <v>1.24</v>
       </c>
       <c r="S72" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T72" t="n">
         <v>2.02</v>
@@ -14505,7 +14505,7 @@
       </c>
       <c r="BH72" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -14542,16 +14542,16 @@
         <v>4</v>
       </c>
       <c r="H73" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I73" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="J73" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="K73" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -14699,7 +14699,7 @@
       </c>
       <c r="BH73" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -14730,16 +14730,16 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="G74" t="n">
         <v>6.6</v>
       </c>
       <c r="H74" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I74" t="n">
         <v>1.63</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1.64</v>
       </c>
       <c r="J74" t="n">
         <v>4.3</v>
@@ -14763,10 +14763,10 @@
         <v>2.12</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R74" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S74" t="n">
         <v>3.1</v>
@@ -14784,16 +14784,16 @@
         <v>0</v>
       </c>
       <c r="X74" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y74" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z74" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AA74" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB74" t="n">
         <v>22</v>
@@ -14814,7 +14814,7 @@
         <v>24</v>
       </c>
       <c r="AH74" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI74" t="n">
         <v>36</v>
@@ -14826,7 +14826,7 @@
         <v>90</v>
       </c>
       <c r="AL74" t="n">
-        <v>80</v>
+        <v>990</v>
       </c>
       <c r="AM74" t="n">
         <v>110</v>
@@ -14841,7 +14841,7 @@
         <v>15.5</v>
       </c>
       <c r="AQ74" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AR74" t="n">
         <v>9</v>
@@ -14862,7 +14862,7 @@
         <v>15</v>
       </c>
       <c r="AX74" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AY74" t="n">
         <v>21</v>
@@ -14877,10 +14877,10 @@
         <v>100</v>
       </c>
       <c r="BC74" t="n">
+        <v>60</v>
+      </c>
+      <c r="BD74" t="n">
         <v>55</v>
-      </c>
-      <c r="BD74" t="n">
-        <v>50</v>
       </c>
       <c r="BE74" t="n">
         <v>70</v>
@@ -14893,7 +14893,7 @@
       </c>
       <c r="BH74" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -15087,7 +15087,7 @@
       </c>
       <c r="BH75" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -15281,7 +15281,7 @@
       </c>
       <c r="BH76" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -15475,7 +15475,7 @@
       </c>
       <c r="BH77" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -15509,7 +15509,7 @@
         <v>1.78</v>
       </c>
       <c r="G78" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H78" t="n">
         <v>4.3</v>
@@ -15518,7 +15518,7 @@
         <v>7.8</v>
       </c>
       <c r="J78" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="K78" t="n">
         <v>4.8</v>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="BH78" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -15712,7 +15712,7 @@
         <v>11.5</v>
       </c>
       <c r="J79" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K79" t="n">
         <v>5.9</v>
@@ -15724,7 +15724,7 @@
         <v>1.06</v>
       </c>
       <c r="N79" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O79" t="n">
         <v>1.3</v>
@@ -15733,10 +15733,10 @@
         <v>2.08</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R79" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S79" t="n">
         <v>3.2</v>
@@ -15778,7 +15778,7 @@
         <v>260</v>
       </c>
       <c r="AF79" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AG79" t="n">
         <v>11</v>
@@ -15811,13 +15811,13 @@
         <v>15.5</v>
       </c>
       <c r="AQ79" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AR79" t="n">
         <v>36</v>
       </c>
       <c r="AS79" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AT79" t="n">
         <v>6.8</v>
@@ -15829,7 +15829,7 @@
         <v>34</v>
       </c>
       <c r="AW79" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AX79" t="n">
         <v>6.8</v>
@@ -15838,7 +15838,7 @@
         <v>10</v>
       </c>
       <c r="AZ79" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BA79" t="n">
         <v>46</v>
@@ -15853,7 +15853,7 @@
         <v>40</v>
       </c>
       <c r="BE79" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BF79" t="n">
         <v>5.7</v>
@@ -15863,7 +15863,7 @@
       </c>
       <c r="BH79" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -15900,7 +15900,7 @@
         <v>3.05</v>
       </c>
       <c r="H80" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I80" t="n">
         <v>2.92</v>
@@ -15924,10 +15924,10 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="BH80" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -16088,13 +16088,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
       </c>
       <c r="H81" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I81" t="n">
         <v>3.55</v>
@@ -16103,7 +16103,7 @@
         <v>3.15</v>
       </c>
       <c r="K81" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -16251,7 +16251,7 @@
       </c>
       <c r="BH81" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -16282,22 +16282,22 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.72</v>
+        <v>6.8</v>
       </c>
       <c r="G82" t="n">
-        <v>60</v>
+        <v>11.5</v>
       </c>
       <c r="H82" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="I82" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="J82" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="K82" t="n">
-        <v>950</v>
+        <v>5</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -16445,7 +16445,7 @@
       </c>
       <c r="BH82" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -16639,7 +16639,7 @@
       </c>
       <c r="BH83" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -16833,7 +16833,7 @@
       </c>
       <c r="BH84" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -17027,7 +17027,7 @@
       </c>
       <c r="BH85" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -17058,22 +17058,22 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.04</v>
+        <v>1.43</v>
       </c>
       <c r="G86" t="n">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="H86" t="n">
-        <v>1.04</v>
+        <v>2.62</v>
       </c>
       <c r="I86" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="J86" t="n">
-        <v>1.01</v>
+        <v>2.62</v>
       </c>
       <c r="K86" t="n">
-        <v>5.7</v>
+        <v>14</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -17221,7 +17221,7 @@
       </c>
       <c r="BH86" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -17252,7 +17252,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="G87" t="n">
         <v>3.1</v>
@@ -17415,7 +17415,7 @@
       </c>
       <c r="BH87" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -17609,7 +17609,7 @@
       </c>
       <c r="BH88" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -17676,7 +17676,7 @@
         <v>1.59</v>
       </c>
       <c r="R89" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="S89" t="n">
         <v>2.46</v>
@@ -17803,7 +17803,7 @@
       </c>
       <c r="BH89" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -17837,10 +17837,10 @@
         <v>1.29</v>
       </c>
       <c r="G90" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="I90" t="n">
         <v>14</v>
@@ -17849,7 +17849,7 @@
         <v>6.8</v>
       </c>
       <c r="K90" t="n">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -17997,7 +17997,7 @@
       </c>
       <c r="BH90" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -18191,7 +18191,7 @@
       </c>
       <c r="BH91" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -18222,10 +18222,10 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="G92" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H92" t="n">
         <v>3</v>
@@ -18267,7 +18267,7 @@
         <v>1.69</v>
       </c>
       <c r="U92" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V92" t="n">
         <v>0</v>
@@ -18282,7 +18282,7 @@
         <v>14.5</v>
       </c>
       <c r="Z92" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA92" t="n">
         <v>1000</v>
@@ -18385,7 +18385,7 @@
       </c>
       <c r="BH92" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -18458,10 +18458,10 @@
         <v>3.65</v>
       </c>
       <c r="T93" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="U93" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="V93" t="n">
         <v>0</v>
@@ -18518,7 +18518,7 @@
         <v>330</v>
       </c>
       <c r="AN93" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AO93" t="n">
         <v>1000</v>
@@ -18579,7 +18579,7 @@
       </c>
       <c r="BH93" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -18613,7 +18613,7 @@
         <v>1.67</v>
       </c>
       <c r="G94" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H94" t="n">
         <v>7.8</v>
@@ -18634,7 +18634,7 @@
         <v>1.16</v>
       </c>
       <c r="N94" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="O94" t="n">
         <v>1.71</v>
@@ -18652,7 +18652,7 @@
         <v>7.2</v>
       </c>
       <c r="T94" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="U94" t="n">
         <v>1.46</v>
@@ -18661,7 +18661,7 @@
         <v>1.12</v>
       </c>
       <c r="W94" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="X94" t="n">
         <v>7.2</v>
@@ -18679,7 +18679,7 @@
         <v>4.8</v>
       </c>
       <c r="AC94" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD94" t="n">
         <v>970</v>
@@ -18727,7 +18727,7 @@
         <v>44</v>
       </c>
       <c r="AS94" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AT94" t="n">
         <v>4.5</v>
@@ -18739,7 +18739,7 @@
         <v>29</v>
       </c>
       <c r="AW94" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX94" t="n">
         <v>7</v>
@@ -18751,7 +18751,7 @@
         <v>25</v>
       </c>
       <c r="BA94" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="BB94" t="n">
         <v>13.5</v>
@@ -18763,17 +18763,17 @@
         <v>38</v>
       </c>
       <c r="BE94" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="BF94" t="n">
         <v>17.5</v>
       </c>
       <c r="BG94" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="BH94" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="BH95" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="BH96" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -19309,7 +19309,7 @@
         <v>34</v>
       </c>
       <c r="AS97" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AT97" t="n">
         <v>8.4</v>
@@ -19345,7 +19345,7 @@
         <v>29</v>
       </c>
       <c r="BE97" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="BF97" t="n">
         <v>9</v>
@@ -19355,7 +19355,7 @@
       </c>
       <c r="BH97" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -19392,16 +19392,16 @@
         <v>1.14</v>
       </c>
       <c r="H98" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I98" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J98" t="n">
         <v>11.5</v>
       </c>
       <c r="K98" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -19416,10 +19416,10 @@
         <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="R98" t="n">
         <v>0</v>
@@ -19549,7 +19549,7 @@
       </c>
       <c r="BH98" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -19743,7 +19743,7 @@
       </c>
       <c r="BH99" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -19937,7 +19937,7 @@
       </c>
       <c r="BH100" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -20131,7 +20131,7 @@
       </c>
       <c r="BH101" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -20325,7 +20325,7 @@
       </c>
       <c r="BH102" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -20519,7 +20519,7 @@
       </c>
       <c r="BH103" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -20713,7 +20713,7 @@
       </c>
       <c r="BH104" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -20774,7 +20774,7 @@
         <v>0</v>
       </c>
       <c r="P105" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q105" t="n">
         <v>1.54</v>
@@ -20907,7 +20907,7 @@
       </c>
       <c r="BH105" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -20938,10 +20938,10 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="G106" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H106" t="n">
         <v>2.44</v>
@@ -20968,7 +20968,7 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="Q106" t="n">
         <v>1.71</v>
@@ -21101,7 +21101,7 @@
       </c>
       <c r="BH106" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -21132,7 +21132,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G107" t="n">
         <v>2.42</v>
@@ -21295,7 +21295,7 @@
       </c>
       <c r="BH107" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -21326,7 +21326,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="G108" t="n">
         <v>4.2</v>
@@ -21335,7 +21335,7 @@
         <v>2.44</v>
       </c>
       <c r="I108" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="J108" t="n">
         <v>2.84</v>
@@ -21489,7 +21489,7 @@
       </c>
       <c r="BH108" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -21683,7 +21683,7 @@
       </c>
       <c r="BH109" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>
@@ -21720,13 +21720,13 @@
         <v>1.66</v>
       </c>
       <c r="H110" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="I110" t="n">
         <v>7.6</v>
       </c>
       <c r="J110" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K110" t="n">
         <v>4.8</v>
@@ -21877,7 +21877,7 @@
       </c>
       <c r="BH110" t="inlineStr">
         <is>
-          <t>2026-02-20 02:40:09</t>
+          <t>2026-02-20 05:10:22</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-22.xlsx
@@ -762,170 +762,170 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="G2" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J2" t="n">
         <v>3.3</v>
       </c>
-      <c r="J2" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.6</v>
+        <v>1.76</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>1.81</v>
       </c>
       <c r="R2" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="S2" t="n">
-        <v>3.4</v>
+        <v>2.96</v>
       </c>
       <c r="T2" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="W2" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="X2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL2" t="n">
         <v>55</v>
       </c>
-      <c r="AB2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>42</v>
-      </c>
       <c r="AM2" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AP2" t="n">
-        <v>12</v>
+        <v>1.02</v>
       </c>
       <c r="AQ2" t="n">
-        <v>10.5</v>
+        <v>1.02</v>
       </c>
       <c r="AR2" t="n">
-        <v>18.5</v>
+        <v>1.02</v>
       </c>
       <c r="AS2" t="n">
-        <v>7.4</v>
+        <v>1.02</v>
       </c>
       <c r="AT2" t="n">
-        <v>9.199999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.8</v>
+        <v>1.02</v>
       </c>
       <c r="AV2" t="n">
-        <v>11.5</v>
+        <v>1.02</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>1.02</v>
       </c>
       <c r="AX2" t="n">
-        <v>14</v>
+        <v>1.02</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>1.02</v>
       </c>
       <c r="AZ2" t="n">
-        <v>14.5</v>
+        <v>1.02</v>
       </c>
       <c r="BA2" t="n">
-        <v>7.2</v>
+        <v>1.02</v>
       </c>
       <c r="BB2" t="n">
-        <v>7</v>
+        <v>1.02</v>
       </c>
       <c r="BC2" t="n">
-        <v>20</v>
+        <v>1.02</v>
       </c>
       <c r="BD2" t="n">
-        <v>32</v>
+        <v>1.01</v>
       </c>
       <c r="BE2" t="n">
-        <v>7.8</v>
+        <v>1.02</v>
       </c>
       <c r="BF2" t="n">
-        <v>16</v>
+        <v>1.02</v>
       </c>
       <c r="BG2" t="n">
-        <v>6.8</v>
+        <v>1.02</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.23</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
         <v>1000</v>
@@ -971,7 +971,7 @@
         <v>1.01</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.02</v>
+        <v>2.12</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -1150,16 +1150,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="G4" t="n">
         <v>4.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -1168,46 +1168,46 @@
         <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S4" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T4" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U4" t="n">
         <v>2.32</v>
       </c>
       <c r="V4" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="W4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X4" t="n">
         <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
         <v>12.5</v>
@@ -1216,7 +1216,7 @@
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="n">
         <v>9.4</v>
@@ -1228,7 +1228,7 @@
         <v>18</v>
       </c>
       <c r="AF4" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG4" t="n">
         <v>17.5</v>
@@ -1255,10 +1255,10 @@
         <v>46</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>17</v>
+        <v>7.6</v>
       </c>
       <c r="AQ4" t="n">
         <v>10</v>
@@ -1279,7 +1279,7 @@
         <v>9.4</v>
       </c>
       <c r="AW4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AX4" t="n">
         <v>32</v>
@@ -1291,29 +1291,29 @@
         <v>15.5</v>
       </c>
       <c r="BA4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB4" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="BC4" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="BD4" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="BE4" t="n">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="BF4" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="BG4" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -1344,22 +1344,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G5" t="n">
         <v>1.91</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="J5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K5" t="n">
         <v>4.8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>1.21</v>
@@ -1368,7 +1368,7 @@
         <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="O5" t="n">
         <v>1.11</v>
@@ -1377,13 +1377,13 @@
         <v>3.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R5" t="n">
         <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T5" t="n">
         <v>1.39</v>
@@ -1392,13 +1392,13 @@
         <v>3.15</v>
       </c>
       <c r="V5" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X5" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Y5" t="n">
         <v>34</v>
@@ -1407,13 +1407,13 @@
         <v>42</v>
       </c>
       <c r="AA5" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC5" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD5" t="n">
         <v>18.5</v>
@@ -1422,7 +1422,7 @@
         <v>34</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
         <v>12.5</v>
@@ -1434,7 +1434,7 @@
         <v>32</v>
       </c>
       <c r="AJ5" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AK5" t="n">
         <v>17</v>
@@ -1443,28 +1443,28 @@
         <v>21</v>
       </c>
       <c r="AM5" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AN5" t="n">
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>9.6</v>
+        <v>30</v>
       </c>
       <c r="AQ5" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AR5" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AS5" t="n">
-        <v>55</v>
+        <v>8.6</v>
       </c>
       <c r="AT5" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AU5" t="n">
         <v>11.5</v>
@@ -1476,16 +1476,16 @@
         <v>30</v>
       </c>
       <c r="AX5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AZ5" t="n">
         <v>13</v>
       </c>
       <c r="BA5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB5" t="n">
         <v>22</v>
@@ -1494,20 +1494,20 @@
         <v>14.5</v>
       </c>
       <c r="BD5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="BE5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BF5" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="BG5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -1550,158 +1550,158 @@
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K6" t="n">
         <v>1000</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
         <v>1.24</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.01</v>
       </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AS6" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AV6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AW6" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AX6" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="BA6" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BC6" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BE6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BF6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -1732,22 +1732,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="G7" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H7" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>2.68</v>
       </c>
       <c r="K7" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1756,19 +1756,19 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="O7" t="n">
         <v>1.35</v>
       </c>
       <c r="P7" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q7" t="n">
         <v>1.35</v>
       </c>
       <c r="R7" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S7" t="n">
         <v>3.15</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -2120,22 +2120,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G9" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="H9" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="G11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>2.94</v>
       </c>
-      <c r="I11" t="n">
-        <v>34</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K11" t="n">
-        <v>740</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.68</v>
-      </c>
       <c r="Q11" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="G12" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="H12" t="n">
         <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="J12" t="n">
         <v>4.4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -2896,22 +2896,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.64</v>
+        <v>1.92</v>
       </c>
       <c r="G13" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="H13" t="n">
-        <v>2.72</v>
+        <v>1.96</v>
       </c>
       <c r="I13" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="J13" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="K13" t="n">
-        <v>3.65</v>
+        <v>950</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2926,10 +2926,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -3287,16 +3287,16 @@
         <v>2.32</v>
       </c>
       <c r="G15" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H15" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I15" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K15" t="n">
         <v>3.15</v>
@@ -3311,10 +3311,10 @@
         <v>3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P15" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q15" t="n">
         <v>2.44</v>
@@ -3341,58 +3341,58 @@
         <v>9.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC15" t="n">
         <v>7</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>60</v>
+        <v>390</v>
       </c>
       <c r="AF15" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AM15" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AO15" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AP15" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AQ15" t="n">
         <v>10.5</v>
@@ -3404,19 +3404,19 @@
         <v>48</v>
       </c>
       <c r="AT15" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AU15" t="n">
         <v>6.6</v>
       </c>
       <c r="AV15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AW15" t="n">
         <v>36</v>
       </c>
       <c r="AX15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AY15" t="n">
         <v>10.5</v>
@@ -3425,13 +3425,13 @@
         <v>18</v>
       </c>
       <c r="BA15" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BB15" t="n">
         <v>19</v>
       </c>
       <c r="BC15" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BD15" t="n">
         <v>29</v>
@@ -3440,14 +3440,14 @@
         <v>44</v>
       </c>
       <c r="BF15" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="BG15" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G16" t="n">
         <v>2.02</v>
@@ -3487,10 +3487,10 @@
         <v>2.04</v>
       </c>
       <c r="I16" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
         <v>950</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="Q16" t="n">
         <v>2.08</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -3672,19 +3672,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.84</v>
+        <v>1.04</v>
       </c>
       <c r="G17" t="n">
-        <v>2.36</v>
+        <v>1000</v>
       </c>
       <c r="H17" t="n">
-        <v>1.77</v>
+        <v>1.04</v>
       </c>
       <c r="I17" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K17" t="n">
         <v>530</v>
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="Q17" t="n">
         <v>1.79</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -3866,61 +3866,61 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="G18" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="H18" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="I18" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K18" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>1.53</v>
+        <v>2.7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.02</v>
+        <v>1.46</v>
       </c>
       <c r="P18" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R18" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="V18" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="W18" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="X18" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
         <v>1000</v>
@@ -3977,59 +3977,59 @@
         <v>1.01</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AU18" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AV18" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AW18" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AX18" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AY18" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AZ18" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="BA18" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="BB18" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="BC18" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="BD18" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="BE18" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="BF18" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="BG18" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -4093,7 +4093,7 @@
         <v>2.14</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -4254,10 +4254,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G20" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H20" t="n">
         <v>3.1</v>
@@ -4266,10 +4266,10 @@
         <v>3.4</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K20" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -4284,10 +4284,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.16</v>
+        <v>1.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -4448,19 +4448,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.37</v>
+        <v>2.38</v>
       </c>
       <c r="G21" t="n">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
       <c r="H21" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="I21" t="n">
         <v>980</v>
       </c>
       <c r="J21" t="n">
-        <v>1.45</v>
+        <v>3.6</v>
       </c>
       <c r="K21" t="n">
         <v>3.7</v>
@@ -4481,7 +4481,7 @@
         <v>1.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.54</v>
+        <v>1.04</v>
       </c>
       <c r="G22" t="n">
-        <v>1.62</v>
+        <v>980</v>
       </c>
       <c r="H22" t="n">
-        <v>5.9</v>
+        <v>1.04</v>
       </c>
       <c r="I22" t="n">
-        <v>7.2</v>
+        <v>980</v>
       </c>
       <c r="J22" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>980</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -4672,10 +4672,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.34</v>
+        <v>1.88</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -4836,22 +4836,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="G23" t="n">
         <v>1.77</v>
       </c>
       <c r="H23" t="n">
-        <v>2.38</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="J23" t="n">
         <v>4.1</v>
       </c>
       <c r="K23" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -4866,10 +4866,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.24</v>
+        <v>2.14</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -5030,19 +5030,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.1</v>
+        <v>1.22</v>
       </c>
       <c r="G24" t="n">
-        <v>2.66</v>
+        <v>1000</v>
       </c>
       <c r="H24" t="n">
-        <v>2.26</v>
+        <v>1.22</v>
       </c>
       <c r="I24" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="J24" t="n">
-        <v>2.86</v>
+        <v>1.01</v>
       </c>
       <c r="K24" t="n">
         <v>950</v>
@@ -5060,10 +5060,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.53</v>
+        <v>1.24</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -6000,16 +6000,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="G29" t="n">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="H29" t="n">
-        <v>1.04</v>
+        <v>4.6</v>
       </c>
       <c r="I29" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J29" t="n">
         <v>4</v>
@@ -6030,10 +6030,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="G30" t="n">
         <v>3.6</v>
@@ -6224,10 +6224,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -6388,19 +6388,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G31" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="H31" t="n">
         <v>4.7</v>
       </c>
       <c r="I31" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J31" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K31" t="n">
         <v>3.85</v>
@@ -6418,10 +6418,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -6582,16 +6582,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G32" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="H32" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I32" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="J32" t="n">
         <v>4.1</v>
@@ -6612,10 +6612,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -6776,22 +6776,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.32</v>
+        <v>1.71</v>
       </c>
       <c r="G33" t="n">
-        <v>3.2</v>
+        <v>2.84</v>
       </c>
       <c r="H33" t="n">
-        <v>2.5</v>
+        <v>2.02</v>
       </c>
       <c r="I33" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="J33" t="n">
-        <v>3.4</v>
+        <v>2.56</v>
       </c>
       <c r="K33" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -6806,10 +6806,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -6979,10 +6979,10 @@
         <v>3.7</v>
       </c>
       <c r="I34" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="J34" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="K34" t="n">
         <v>4.4</v>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -7164,22 +7164,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G35" t="n">
         <v>2.62</v>
       </c>
       <c r="H35" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K35" t="n">
         <v>3.25</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.3</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -7194,16 +7194,16 @@
         <v>1.38</v>
       </c>
       <c r="P35" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R35" t="n">
         <v>1.31</v>
       </c>
       <c r="S35" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T35" t="n">
         <v>1.87</v>
@@ -7218,16 +7218,16 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
         <v>11.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
         <v>10</v>
@@ -7236,58 +7236,58 @@
         <v>7</v>
       </c>
       <c r="AD35" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH35" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AP35" t="n">
         <v>10.5</v>
       </c>
       <c r="AQ35" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AR35" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT35" t="n">
         <v>9</v>
       </c>
       <c r="AU35" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AV35" t="n">
         <v>12.5</v>
@@ -7296,19 +7296,19 @@
         <v>30</v>
       </c>
       <c r="AX35" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AY35" t="n">
         <v>11</v>
       </c>
       <c r="AZ35" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="BA35" t="n">
         <v>29</v>
       </c>
       <c r="BB35" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="BC35" t="n">
         <v>24</v>
@@ -7320,14 +7320,14 @@
         <v>38</v>
       </c>
       <c r="BF35" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="BG35" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -7746,22 +7746,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G38" t="n">
         <v>4.3</v>
       </c>
       <c r="H38" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I38" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="J38" t="n">
-        <v>2.82</v>
+        <v>2.3</v>
       </c>
       <c r="K38" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -7779,7 +7779,7 @@
         <v>1.48</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -7940,22 +7940,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4</v>
+        <v>1.04</v>
       </c>
       <c r="G39" t="n">
-        <v>5.1</v>
+        <v>7</v>
       </c>
       <c r="H39" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="I39" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="J39" t="n">
-        <v>3.45</v>
+        <v>1.25</v>
       </c>
       <c r="K39" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -7973,7 +7973,7 @@
         <v>1.25</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -8134,22 +8134,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.15</v>
+        <v>4.9</v>
       </c>
       <c r="G40" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="H40" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="I40" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="J40" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K40" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -8328,10 +8328,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G41" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H41" t="n">
         <v>2.48</v>
@@ -8340,10 +8340,10 @@
         <v>2.56</v>
       </c>
       <c r="J41" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K41" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -8388,10 +8388,10 @@
         <v>11.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AB41" t="n">
         <v>13.5</v>
@@ -8403,34 +8403,34 @@
         <v>12.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AF41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG41" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH41" t="n">
         <v>17.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ41" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL41" t="n">
         <v>55</v>
       </c>
-      <c r="AK41" t="n">
+      <c r="AM41" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN41" t="n">
         <v>36</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>32</v>
       </c>
       <c r="AO41" t="n">
         <v>22</v>
@@ -8439,19 +8439,19 @@
         <v>13</v>
       </c>
       <c r="AQ41" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AR41" t="n">
         <v>14</v>
       </c>
       <c r="AS41" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AT41" t="n">
         <v>11.5</v>
       </c>
       <c r="AU41" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AV41" t="n">
         <v>10.5</v>
@@ -8463,35 +8463,35 @@
         <v>18.5</v>
       </c>
       <c r="AY41" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AZ41" t="n">
         <v>14.5</v>
       </c>
       <c r="BA41" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="BB41" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="BC41" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="BD41" t="n">
-        <v>36</v>
+        <v>7.2</v>
       </c>
       <c r="BE41" t="n">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="BF41" t="n">
-        <v>25</v>
+        <v>6.8</v>
       </c>
       <c r="BG41" t="n">
         <v>17.5</v>
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -8525,10 +8525,10 @@
         <v>2.86</v>
       </c>
       <c r="G42" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H42" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="I42" t="n">
         <v>2.82</v>
@@ -8555,7 +8555,7 @@
         <v>1.76</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R42" t="n">
         <v>1.28</v>
@@ -8576,19 +8576,19 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y42" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z42" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA42" t="n">
         <v>46</v>
       </c>
       <c r="AB42" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC42" t="n">
         <v>7.2</v>
@@ -8597,7 +8597,7 @@
         <v>12.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF42" t="n">
         <v>18</v>
@@ -8633,7 +8633,7 @@
         <v>10.5</v>
       </c>
       <c r="AQ42" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AR42" t="n">
         <v>16</v>
@@ -8678,14 +8678,14 @@
         <v>50</v>
       </c>
       <c r="BF42" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BG42" t="n">
         <v>30</v>
       </c>
       <c r="BH42" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -8722,10 +8722,10 @@
         <v>4.5</v>
       </c>
       <c r="H43" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I43" t="n">
         <v>1.86</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1.87</v>
       </c>
       <c r="J43" t="n">
         <v>4.2</v>
@@ -8743,7 +8743,7 @@
         <v>4.6</v>
       </c>
       <c r="O43" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P43" t="n">
         <v>2.26</v>
@@ -8752,7 +8752,7 @@
         <v>1.76</v>
       </c>
       <c r="R43" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S43" t="n">
         <v>2.94</v>
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y43" t="n">
         <v>10.5</v>
@@ -8794,13 +8794,13 @@
         <v>17</v>
       </c>
       <c r="AF43" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AG43" t="n">
         <v>17.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI43" t="n">
         <v>30</v>
@@ -8818,7 +8818,7 @@
         <v>80</v>
       </c>
       <c r="AN43" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AO43" t="n">
         <v>10.5</v>
@@ -8836,7 +8836,7 @@
         <v>19</v>
       </c>
       <c r="AT43" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AU43" t="n">
         <v>8.6</v>
@@ -8866,20 +8866,20 @@
         <v>44</v>
       </c>
       <c r="BD43" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BE43" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="BF43" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="BG43" t="n">
         <v>9.4</v>
       </c>
       <c r="BH43" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -8916,10 +8916,10 @@
         <v>1.7</v>
       </c>
       <c r="H44" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I44" t="n">
         <v>5.7</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5.8</v>
       </c>
       <c r="J44" t="n">
         <v>4.2</v>
@@ -8934,7 +8934,7 @@
         <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O44" t="n">
         <v>1.34</v>
@@ -8943,19 +8943,19 @@
         <v>1.95</v>
       </c>
       <c r="Q44" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R44" t="n">
         <v>1.37</v>
       </c>
       <c r="S44" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T44" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U44" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -8964,16 +8964,16 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA44" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB44" t="n">
         <v>8</v>
@@ -8982,13 +8982,13 @@
         <v>9</v>
       </c>
       <c r="AD44" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE44" t="n">
         <v>85</v>
       </c>
       <c r="AF44" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AG44" t="n">
         <v>9.800000000000001</v>
@@ -8997,16 +8997,16 @@
         <v>23</v>
       </c>
       <c r="AI44" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ44" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK44" t="n">
         <v>18.5</v>
       </c>
       <c r="AL44" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM44" t="n">
         <v>130</v>
@@ -9015,31 +9015,31 @@
         <v>11</v>
       </c>
       <c r="AO44" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AP44" t="n">
         <v>13.5</v>
       </c>
       <c r="AQ44" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AR44" t="n">
         <v>38</v>
       </c>
       <c r="AS44" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AT44" t="n">
         <v>7.6</v>
       </c>
       <c r="AU44" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AV44" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AW44" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AX44" t="n">
         <v>8.800000000000001</v>
@@ -9051,29 +9051,29 @@
         <v>21</v>
       </c>
       <c r="BA44" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB44" t="n">
         <v>15</v>
       </c>
       <c r="BC44" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="BD44" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BE44" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="BF44" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BG44" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="BH44" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -9104,16 +9104,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G45" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H45" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="I45" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="J45" t="n">
         <v>2.8</v>
@@ -9134,10 +9134,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -9267,7 +9267,7 @@
       </c>
       <c r="BH45" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -9298,22 +9298,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G46" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="H46" t="n">
-        <v>1.09</v>
+        <v>4.8</v>
       </c>
       <c r="I46" t="n">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="J46" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="K46" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -9328,10 +9328,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="BH46" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -9492,19 +9492,19 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G47" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H47" t="n">
         <v>4.3</v>
       </c>
       <c r="I47" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J47" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K47" t="n">
         <v>3.55</v>
@@ -9525,7 +9525,7 @@
         <v>2.02</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R47" t="n">
         <v>1.4</v>
@@ -9570,19 +9570,19 @@
         <v>55</v>
       </c>
       <c r="AF47" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG47" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI47" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ47" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK47" t="n">
         <v>22</v>
@@ -9591,13 +9591,13 @@
         <v>36</v>
       </c>
       <c r="AM47" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN47" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AP47" t="n">
         <v>13</v>
@@ -9606,10 +9606,10 @@
         <v>15</v>
       </c>
       <c r="AR47" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AS47" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AT47" t="n">
         <v>9</v>
@@ -9627,13 +9627,13 @@
         <v>12</v>
       </c>
       <c r="AY47" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AZ47" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BA47" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="BB47" t="n">
         <v>20</v>
@@ -9642,7 +9642,7 @@
         <v>18.5</v>
       </c>
       <c r="BD47" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="BE47" t="n">
         <v>36</v>
@@ -9651,11 +9651,11 @@
         <v>12.5</v>
       </c>
       <c r="BG47" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="BH47" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -9686,22 +9686,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="G48" t="n">
-        <v>15</v>
+        <v>7.6</v>
       </c>
       <c r="H48" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="I48" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="J48" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="K48" t="n">
-        <v>650</v>
+        <v>5.1</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="BH48" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -9883,7 +9883,7 @@
         <v>4.4</v>
       </c>
       <c r="G49" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H49" t="n">
         <v>1.87</v>
@@ -9892,40 +9892,40 @@
         <v>1.96</v>
       </c>
       <c r="J49" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K49" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L49" t="n">
         <v>1.01</v>
       </c>
       <c r="M49" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>1.69</v>
+        <v>3.3</v>
       </c>
       <c r="O49" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P49" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R49" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="S49" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="T49" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="U49" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V49" t="n">
         <v>2.04</v>
@@ -9934,28 +9934,28 @@
         <v>1.24</v>
       </c>
       <c r="X49" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA49" t="n">
         <v>1000</v>
       </c>
-      <c r="Y49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>980</v>
-      </c>
       <c r="AB49" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD49" t="n">
         <v>1000</v>
       </c>
       <c r="AE49" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF49" t="n">
         <v>980</v>
@@ -9970,80 +9970,80 @@
         <v>980</v>
       </c>
       <c r="AJ49" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AK49" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL49" t="n">
         <v>90</v>
       </c>
-      <c r="AL49" t="n">
-        <v>75</v>
-      </c>
       <c r="AM49" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AO49" t="n">
         <v>1000</v>
       </c>
       <c r="AP49" t="n">
-        <v>6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ49" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AR49" t="n">
-        <v>5.6</v>
+        <v>1.8</v>
       </c>
       <c r="AS49" t="n">
-        <v>7.2</v>
+        <v>2.06</v>
       </c>
       <c r="AT49" t="n">
-        <v>6.4</v>
+        <v>1.86</v>
       </c>
       <c r="AU49" t="n">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="AV49" t="n">
-        <v>5.2</v>
+        <v>2.06</v>
       </c>
       <c r="AW49" t="n">
-        <v>7</v>
+        <v>2.06</v>
       </c>
       <c r="AX49" t="n">
-        <v>4.1</v>
+        <v>1.98</v>
       </c>
       <c r="AY49" t="n">
-        <v>6.8</v>
+        <v>2.06</v>
       </c>
       <c r="AZ49" t="n">
-        <v>7</v>
+        <v>1.91</v>
       </c>
       <c r="BA49" t="n">
-        <v>8.4</v>
+        <v>1.99</v>
       </c>
       <c r="BB49" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="BC49" t="n">
-        <v>9</v>
+        <v>2.02</v>
       </c>
       <c r="BD49" t="n">
-        <v>9.199999999999999</v>
+        <v>2.02</v>
       </c>
       <c r="BE49" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="BF49" t="n">
-        <v>3.45</v>
+        <v>2.02</v>
       </c>
       <c r="BG49" t="n">
-        <v>11</v>
+        <v>2.06</v>
       </c>
       <c r="BH49" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -10104,7 +10104,7 @@
         <v>1.21</v>
       </c>
       <c r="P50" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q50" t="n">
         <v>1.61</v>
@@ -10128,7 +10128,7 @@
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y50" t="n">
         <v>12</v>
@@ -10137,7 +10137,7 @@
         <v>11</v>
       </c>
       <c r="AA50" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB50" t="n">
         <v>40</v>
@@ -10155,25 +10155,25 @@
         <v>1000</v>
       </c>
       <c r="AG50" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AH50" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI50" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ50" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="AK50" t="n">
+        <v>170</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>140</v>
+      </c>
+      <c r="AM50" t="n">
         <v>160</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>150</v>
       </c>
       <c r="AN50" t="n">
         <v>1000</v>
@@ -10182,7 +10182,7 @@
         <v>6.4</v>
       </c>
       <c r="AP50" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AQ50" t="n">
         <v>8.4</v>
@@ -10194,50 +10194,50 @@
         <v>10</v>
       </c>
       <c r="AT50" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AU50" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AV50" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AW50" t="n">
         <v>12.5</v>
       </c>
       <c r="AX50" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AY50" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AZ50" t="n">
         <v>21</v>
       </c>
       <c r="BA50" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="BB50" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="BC50" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="BD50" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="BE50" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="BF50" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="BG50" t="n">
         <v>4.2</v>
       </c>
       <c r="BH50" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -10268,22 +10268,22 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G51" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="H51" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I51" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J51" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K51" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -10292,25 +10292,25 @@
         <v>1.03</v>
       </c>
       <c r="N51" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="O51" t="n">
         <v>1.18</v>
       </c>
       <c r="P51" t="n">
-        <v>2.52</v>
+        <v>2.24</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="R51" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="S51" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T51" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U51" t="n">
         <v>2.14</v>
@@ -10325,7 +10325,7 @@
         <v>30</v>
       </c>
       <c r="Y51" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="Z51" t="n">
         <v>1000</v>
@@ -10337,19 +10337,19 @@
         <v>13.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE51" t="n">
         <v>1000</v>
       </c>
       <c r="AF51" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG51" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>12</v>
       </c>
       <c r="AH51" t="n">
         <v>24</v>
@@ -10358,58 +10358,58 @@
         <v>1000</v>
       </c>
       <c r="AJ51" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK51" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL51" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM51" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN51" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AO51" t="n">
         <v>1000</v>
       </c>
       <c r="AP51" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR51" t="n">
         <v>4.9</v>
       </c>
-      <c r="AQ51" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AR51" t="n">
-        <v>5.3</v>
-      </c>
       <c r="AS51" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="AT51" t="n">
         <v>10</v>
       </c>
       <c r="AU51" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AV51" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="AW51" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="AX51" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AY51" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ51" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="BA51" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="BB51" t="n">
         <v>12</v>
@@ -10418,20 +10418,20 @@
         <v>12.5</v>
       </c>
       <c r="BD51" t="n">
-        <v>25</v>
+        <v>4.6</v>
       </c>
       <c r="BE51" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="BF51" t="n">
         <v>4.9</v>
       </c>
       <c r="BG51" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="BH51" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -10471,10 +10471,10 @@
         <v>1.55</v>
       </c>
       <c r="I52" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="J52" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="K52" t="n">
         <v>5.3</v>
@@ -10492,10 +10492,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>2.76</v>
+        <v>1.07</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -10625,7 +10625,7 @@
       </c>
       <c r="BH52" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -10656,13 +10656,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.8</v>
+        <v>2.86</v>
       </c>
       <c r="G53" t="n">
-        <v>8.199999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="H53" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="I53" t="n">
         <v>2.3</v>
@@ -10671,7 +10671,7 @@
         <v>3.15</v>
       </c>
       <c r="K53" t="n">
-        <v>710</v>
+        <v>4.6</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -10686,10 +10686,10 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -10819,7 +10819,7 @@
       </c>
       <c r="BH53" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -10850,22 +10850,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="G54" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H54" t="n">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="I54" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J54" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K54" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -10880,10 +10880,10 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -11013,7 +11013,7 @@
       </c>
       <c r="BH54" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -11044,13 +11044,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="G55" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="H55" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="I55" t="n">
         <v>7.4</v>
@@ -11059,7 +11059,7 @@
         <v>3.5</v>
       </c>
       <c r="K55" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="Q55" t="n">
         <v>2.44</v>
@@ -11207,7 +11207,7 @@
       </c>
       <c r="BH55" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -11238,22 +11238,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="G56" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="H56" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="I56" t="n">
-        <v>2.84</v>
+        <v>2.64</v>
       </c>
       <c r="J56" t="n">
-        <v>2.2</v>
+        <v>2.96</v>
       </c>
       <c r="K56" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -11268,10 +11268,10 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="BH56" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -11438,16 +11438,16 @@
         <v>1.14</v>
       </c>
       <c r="H57" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I57" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J57" t="n">
         <v>13</v>
       </c>
       <c r="K57" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -11468,16 +11468,16 @@
         <v>1.24</v>
       </c>
       <c r="R57" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="S57" t="n">
         <v>1.63</v>
       </c>
       <c r="T57" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U57" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -11492,7 +11492,7 @@
         <v>1000</v>
       </c>
       <c r="Z57" t="n">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="AA57" t="n">
         <v>1000</v>
@@ -11504,19 +11504,19 @@
         <v>36</v>
       </c>
       <c r="AD57" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AE57" t="n">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="AF57" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG57" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AI57" t="n">
         <v>1000</v>
@@ -11528,7 +11528,7 @@
         <v>13</v>
       </c>
       <c r="AL57" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM57" t="n">
         <v>1000</v>
@@ -11537,7 +11537,7 @@
         <v>2.28</v>
       </c>
       <c r="AO57" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="AP57" t="n">
         <v>34</v>
@@ -11546,7 +11546,7 @@
         <v>38</v>
       </c>
       <c r="AR57" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="AS57" t="n">
         <v>60</v>
@@ -11561,7 +11561,7 @@
         <v>34</v>
       </c>
       <c r="AW57" t="n">
-        <v>55</v>
+        <v>19.5</v>
       </c>
       <c r="AX57" t="n">
         <v>10</v>
@@ -11570,7 +11570,7 @@
         <v>13</v>
       </c>
       <c r="AZ57" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="BA57" t="n">
         <v>46</v>
@@ -11582,7 +11582,7 @@
         <v>12</v>
       </c>
       <c r="BD57" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BE57" t="n">
         <v>44</v>
@@ -11591,11 +11591,11 @@
         <v>2.18</v>
       </c>
       <c r="BG57" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="BH57" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -11626,22 +11626,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="G58" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="H58" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="I58" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="J58" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K58" t="n">
-        <v>6.8</v>
+        <v>4.3</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -11656,10 +11656,10 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>2.06</v>
+        <v>2.34</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="BH58" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -11983,7 +11983,7 @@
       </c>
       <c r="BH59" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -12026,7 +12026,7 @@
         <v>3.9</v>
       </c>
       <c r="J60" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K60" t="n">
         <v>4.1</v>
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q60" t="n">
         <v>1.57</v>
@@ -12177,7 +12177,7 @@
       </c>
       <c r="BH60" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -12208,19 +12208,19 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="H61" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="I61" t="n">
         <v>1000</v>
       </c>
       <c r="J61" t="n">
-        <v>1.01</v>
+        <v>2.7</v>
       </c>
       <c r="K61" t="n">
         <v>12.5</v>
@@ -12238,10 +12238,10 @@
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -12371,7 +12371,7 @@
       </c>
       <c r="BH61" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -12402,22 +12402,22 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>3.35</v>
+        <v>1.04</v>
       </c>
       <c r="G62" t="n">
         <v>1000</v>
       </c>
       <c r="H62" t="n">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
       <c r="I62" t="n">
-        <v>1.34</v>
+        <v>1000</v>
       </c>
       <c r="J62" t="n">
-        <v>5.5</v>
+        <v>1.07</v>
       </c>
       <c r="K62" t="n">
-        <v>6.8</v>
+        <v>70</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -12432,10 +12432,10 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>1.84</v>
+        <v>1.08</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -12565,7 +12565,7 @@
       </c>
       <c r="BH62" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -12596,22 +12596,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="G63" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="H63" t="n">
         <v>2.64</v>
       </c>
       <c r="I63" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="J63" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K63" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -12626,10 +12626,10 @@
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -12759,7 +12759,7 @@
       </c>
       <c r="BH63" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -12793,19 +12793,19 @@
         <v>2.18</v>
       </c>
       <c r="G64" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H64" t="n">
         <v>3.55</v>
       </c>
       <c r="I64" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J64" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K64" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -12817,19 +12817,19 @@
         <v>4.1</v>
       </c>
       <c r="O64" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P64" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q64" t="n">
         <v>1.87</v>
       </c>
       <c r="R64" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S64" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="T64" t="n">
         <v>1.74</v>
@@ -12850,10 +12850,10 @@
         <v>17</v>
       </c>
       <c r="Z64" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AA64" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB64" t="n">
         <v>11</v>
@@ -12862,37 +12862,37 @@
         <v>8.4</v>
       </c>
       <c r="AD64" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AE64" t="n">
         <v>42</v>
       </c>
       <c r="AF64" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG64" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH64" t="n">
         <v>17</v>
       </c>
       <c r="AI64" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ64" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AK64" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL64" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM64" t="n">
         <v>85</v>
       </c>
       <c r="AN64" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AO64" t="n">
         <v>44</v>
@@ -12904,22 +12904,22 @@
         <v>13</v>
       </c>
       <c r="AR64" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS64" t="n">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="AT64" t="n">
         <v>9.6</v>
       </c>
       <c r="AU64" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AV64" t="n">
         <v>13.5</v>
       </c>
       <c r="AW64" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AX64" t="n">
         <v>13</v>
@@ -12928,32 +12928,32 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AZ64" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BA64" t="n">
-        <v>40</v>
+        <v>7.2</v>
       </c>
       <c r="BB64" t="n">
         <v>21</v>
       </c>
       <c r="BC64" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="BD64" t="n">
-        <v>29</v>
+        <v>6.8</v>
       </c>
       <c r="BE64" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="BF64" t="n">
         <v>13.5</v>
       </c>
       <c r="BG64" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="BH64" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -12984,7 +12984,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="G65" t="n">
         <v>2.58</v>
@@ -12996,7 +12996,7 @@
         <v>3.2</v>
       </c>
       <c r="J65" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K65" t="n">
         <v>3.45</v>
@@ -13011,19 +13011,19 @@
         <v>3.3</v>
       </c>
       <c r="O65" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P65" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R65" t="n">
         <v>1.29</v>
       </c>
       <c r="S65" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T65" t="n">
         <v>1.89</v>
@@ -13041,16 +13041,16 @@
         <v>12</v>
       </c>
       <c r="Y65" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z65" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA65" t="n">
         <v>60</v>
       </c>
       <c r="AB65" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC65" t="n">
         <v>7.6</v>
@@ -13062,7 +13062,7 @@
         <v>42</v>
       </c>
       <c r="AF65" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG65" t="n">
         <v>12.5</v>
@@ -13077,16 +13077,16 @@
         <v>40</v>
       </c>
       <c r="AK65" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL65" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AM65" t="n">
         <v>140</v>
       </c>
       <c r="AN65" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO65" t="n">
         <v>44</v>
@@ -13095,13 +13095,13 @@
         <v>10.5</v>
       </c>
       <c r="AQ65" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AR65" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="AT65" t="n">
         <v>8.6</v>
@@ -13113,10 +13113,10 @@
         <v>12.5</v>
       </c>
       <c r="AW65" t="n">
-        <v>34</v>
+        <v>8.6</v>
       </c>
       <c r="AX65" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AY65" t="n">
         <v>10.5</v>
@@ -13125,29 +13125,29 @@
         <v>17</v>
       </c>
       <c r="BA65" t="n">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="BB65" t="n">
-        <v>30</v>
+        <v>8.4</v>
       </c>
       <c r="BC65" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BD65" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BE65" t="n">
         <v>10</v>
       </c>
       <c r="BF65" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BG65" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="BH65" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -13208,22 +13208,22 @@
         <v>1.38</v>
       </c>
       <c r="P66" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R66" t="n">
         <v>1.31</v>
       </c>
       <c r="S66" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T66" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U66" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -13235,7 +13235,7 @@
         <v>13</v>
       </c>
       <c r="Y66" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Z66" t="n">
         <v>12</v>
@@ -13247,25 +13247,25 @@
         <v>14</v>
       </c>
       <c r="AC66" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD66" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE66" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AF66" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AG66" t="n">
         <v>17.5</v>
       </c>
       <c r="AH66" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AI66" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AJ66" t="n">
         <v>120</v>
@@ -13280,13 +13280,13 @@
         <v>150</v>
       </c>
       <c r="AN66" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AO66" t="n">
         <v>17</v>
       </c>
       <c r="AP66" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AQ66" t="n">
         <v>7.4</v>
@@ -13295,10 +13295,10 @@
         <v>10.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT66" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AU66" t="n">
         <v>7.4</v>
@@ -13310,38 +13310,38 @@
         <v>20</v>
       </c>
       <c r="AX66" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="AY66" t="n">
         <v>15.5</v>
       </c>
       <c r="AZ66" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BA66" t="n">
-        <v>34</v>
+        <v>8.4</v>
       </c>
       <c r="BB66" t="n">
-        <v>14</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BC66" t="n">
-        <v>44</v>
+        <v>8.6</v>
       </c>
       <c r="BD66" t="n">
-        <v>12.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BE66" t="n">
-        <v>14</v>
+        <v>9.4</v>
       </c>
       <c r="BF66" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="BG66" t="n">
         <v>15</v>
       </c>
       <c r="BH66" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -13402,7 +13402,7 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="Q67" t="n">
         <v>1.01</v>
@@ -13535,7 +13535,7 @@
       </c>
       <c r="BH67" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="BH68" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -13763,16 +13763,16 @@
         <v>1.58</v>
       </c>
       <c r="G69" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="H69" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="I69" t="n">
         <v>1000</v>
       </c>
       <c r="J69" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="K69" t="n">
         <v>1000</v>
@@ -13790,10 +13790,10 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -13923,7 +13923,7 @@
       </c>
       <c r="BH69" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -13954,22 +13954,22 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G70" t="n">
         <v>3.45</v>
       </c>
       <c r="H70" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I70" t="n">
         <v>3.25</v>
       </c>
       <c r="J70" t="n">
-        <v>3.15</v>
+        <v>2.48</v>
       </c>
       <c r="K70" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -13984,10 +13984,10 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>1.97</v>
+        <v>1.02</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -14117,7 +14117,7 @@
       </c>
       <c r="BH70" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -14311,7 +14311,7 @@
       </c>
       <c r="BH71" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -14342,22 +14342,22 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="G72" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="H72" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I72" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="J72" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K72" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -14369,16 +14369,16 @@
         <v>3</v>
       </c>
       <c r="O72" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="P72" t="n">
         <v>1.68</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R72" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S72" t="n">
         <v>4.7</v>
@@ -14387,7 +14387,7 @@
         <v>2.02</v>
       </c>
       <c r="U72" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V72" t="n">
         <v>0</v>
@@ -14396,58 +14396,58 @@
         <v>0</v>
       </c>
       <c r="X72" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="Y72" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Z72" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA72" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB72" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AC72" t="n">
         <v>7.2</v>
       </c>
       <c r="AD72" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE72" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF72" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG72" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH72" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI72" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ72" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK72" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL72" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM72" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN72" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO72" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AP72" t="n">
         <v>9</v>
@@ -14456,13 +14456,13 @@
         <v>8.4</v>
       </c>
       <c r="AR72" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AS72" t="n">
         <v>25</v>
       </c>
       <c r="AT72" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AU72" t="n">
         <v>6.6</v>
@@ -14471,41 +14471,41 @@
         <v>12</v>
       </c>
       <c r="AW72" t="n">
-        <v>29</v>
+        <v>4.6</v>
       </c>
       <c r="AX72" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY72" t="n">
         <v>12</v>
       </c>
       <c r="AZ72" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA72" t="n">
-        <v>30</v>
+        <v>4.9</v>
       </c>
       <c r="BB72" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="BC72" t="n">
-        <v>32</v>
+        <v>4.6</v>
       </c>
       <c r="BD72" t="n">
-        <v>46</v>
+        <v>4.9</v>
       </c>
       <c r="BE72" t="n">
-        <v>15</v>
+        <v>4.9</v>
       </c>
       <c r="BF72" t="n">
-        <v>34</v>
+        <v>4.4</v>
       </c>
       <c r="BG72" t="n">
-        <v>24</v>
+        <v>4.6</v>
       </c>
       <c r="BH72" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -14536,22 +14536,22 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.74</v>
+        <v>1.04</v>
       </c>
       <c r="G73" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="H73" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="I73" t="n">
-        <v>2.6</v>
+        <v>1000</v>
       </c>
       <c r="J73" t="n">
-        <v>2.74</v>
+        <v>1.01</v>
       </c>
       <c r="K73" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -14566,10 +14566,10 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>2.42</v>
+        <v>1.08</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -14699,7 +14699,7 @@
       </c>
       <c r="BH73" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -14730,16 +14730,16 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="G74" t="n">
         <v>6.6</v>
       </c>
       <c r="H74" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I74" t="n">
         <v>1.62</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1.63</v>
       </c>
       <c r="J74" t="n">
         <v>4.3</v>
@@ -14772,7 +14772,7 @@
         <v>3.1</v>
       </c>
       <c r="T74" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U74" t="n">
         <v>2.04</v>
@@ -14796,7 +14796,7 @@
         <v>15</v>
       </c>
       <c r="AB74" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC74" t="n">
         <v>9.4</v>
@@ -14808,34 +14808,34 @@
         <v>16</v>
       </c>
       <c r="AF74" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG74" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH74" t="n">
         <v>21</v>
       </c>
       <c r="AI74" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ74" t="n">
         <v>200</v>
       </c>
       <c r="AK74" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AL74" t="n">
-        <v>990</v>
+        <v>85</v>
       </c>
       <c r="AM74" t="n">
         <v>110</v>
       </c>
       <c r="AN74" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AO74" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AP74" t="n">
         <v>15.5</v>
@@ -14865,19 +14865,19 @@
         <v>48</v>
       </c>
       <c r="AY74" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ74" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="BA74" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BB74" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BC74" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BD74" t="n">
         <v>55</v>
@@ -14886,14 +14886,14 @@
         <v>70</v>
       </c>
       <c r="BF74" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="BG74" t="n">
         <v>8</v>
       </c>
       <c r="BH74" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -15087,7 +15087,7 @@
       </c>
       <c r="BH75" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -15124,7 +15124,7 @@
         <v>1000</v>
       </c>
       <c r="H76" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="I76" t="n">
         <v>1.89</v>
@@ -15148,10 +15148,10 @@
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -15281,7 +15281,7 @@
       </c>
       <c r="BH76" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -15312,22 +15312,22 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.27</v>
+        <v>1.74</v>
       </c>
       <c r="G77" t="n">
-        <v>1000</v>
+        <v>1.83</v>
       </c>
       <c r="H77" t="n">
-        <v>1.05</v>
+        <v>4.7</v>
       </c>
       <c r="I77" t="n">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
       <c r="J77" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K77" t="n">
-        <v>980</v>
+        <v>4.6</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -15342,10 +15342,10 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>1.24</v>
+        <v>2.2</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -15475,7 +15475,7 @@
       </c>
       <c r="BH77" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -15509,19 +15509,19 @@
         <v>1.78</v>
       </c>
       <c r="G78" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="H78" t="n">
-        <v>4.3</v>
+        <v>1.89</v>
       </c>
       <c r="I78" t="n">
-        <v>7.8</v>
+        <v>19</v>
       </c>
       <c r="J78" t="n">
-        <v>2.6</v>
+        <v>1.89</v>
       </c>
       <c r="K78" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="BH78" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -15703,7 +15703,7 @@
         <v>1.36</v>
       </c>
       <c r="G79" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="H79" t="n">
         <v>10.5</v>
@@ -15712,7 +15712,7 @@
         <v>11.5</v>
       </c>
       <c r="J79" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K79" t="n">
         <v>5.9</v>
@@ -15724,22 +15724,22 @@
         <v>1.06</v>
       </c>
       <c r="N79" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O79" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P79" t="n">
         <v>2.08</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="R79" t="n">
         <v>1.42</v>
       </c>
       <c r="S79" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T79" t="n">
         <v>2.36</v>
@@ -15766,31 +15766,31 @@
         <v>1000</v>
       </c>
       <c r="AB79" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC79" t="n">
         <v>13</v>
       </c>
       <c r="AD79" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE79" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AF79" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="AG79" t="n">
         <v>11</v>
       </c>
       <c r="AH79" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI79" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AJ79" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AK79" t="n">
         <v>16.5</v>
@@ -15811,13 +15811,13 @@
         <v>15.5</v>
       </c>
       <c r="AQ79" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR79" t="n">
-        <v>36</v>
+        <v>8.6</v>
       </c>
       <c r="AS79" t="n">
-        <v>16.5</v>
+        <v>7</v>
       </c>
       <c r="AT79" t="n">
         <v>6.8</v>
@@ -15826,10 +15826,10 @@
         <v>11.5</v>
       </c>
       <c r="AV79" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AW79" t="n">
-        <v>15.5</v>
+        <v>6.8</v>
       </c>
       <c r="AX79" t="n">
         <v>6.8</v>
@@ -15838,32 +15838,32 @@
         <v>10</v>
       </c>
       <c r="AZ79" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="BA79" t="n">
-        <v>46</v>
+        <v>6.8</v>
       </c>
       <c r="BB79" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="BC79" t="n">
         <v>14.5</v>
       </c>
       <c r="BD79" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="BE79" t="n">
-        <v>15</v>
+        <v>6.8</v>
       </c>
       <c r="BF79" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="BG79" t="n">
-        <v>90</v>
+        <v>6.8</v>
       </c>
       <c r="BH79" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -15894,22 +15894,22 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="G80" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H80" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I80" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J80" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K80" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -15924,10 +15924,10 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>2.34</v>
+        <v>2.6</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="BH80" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -16088,22 +16088,22 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H81" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="I81" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J81" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K81" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -16118,7 +16118,7 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q81" t="n">
         <v>1.71</v>
@@ -16251,7 +16251,7 @@
       </c>
       <c r="BH81" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -16282,7 +16282,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="G82" t="n">
         <v>11.5</v>
@@ -16291,7 +16291,7 @@
         <v>1.43</v>
       </c>
       <c r="I82" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="J82" t="n">
         <v>4.2</v>
@@ -16312,10 +16312,10 @@
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -16445,7 +16445,7 @@
       </c>
       <c r="BH82" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -16639,7 +16639,7 @@
       </c>
       <c r="BH83" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -16833,7 +16833,7 @@
       </c>
       <c r="BH84" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -16864,22 +16864,22 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="G85" t="n">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="H85" t="n">
-        <v>2.04</v>
+        <v>4.1</v>
       </c>
       <c r="I85" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="J85" t="n">
-        <v>2.04</v>
+        <v>3.2</v>
       </c>
       <c r="K85" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -16894,10 +16894,10 @@
         <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -17027,7 +17027,7 @@
       </c>
       <c r="BH85" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -17058,22 +17058,22 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.43</v>
+        <v>1.04</v>
       </c>
       <c r="G86" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="H86" t="n">
-        <v>2.62</v>
+        <v>1.04</v>
       </c>
       <c r="I86" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="J86" t="n">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="K86" t="n">
-        <v>14</v>
+        <v>5.7</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -17221,7 +17221,7 @@
       </c>
       <c r="BH86" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -17252,16 +17252,16 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="G87" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H87" t="n">
         <v>2.56</v>
       </c>
       <c r="I87" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J87" t="n">
         <v>3.35</v>
@@ -17282,10 +17282,10 @@
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -17415,7 +17415,7 @@
       </c>
       <c r="BH87" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -17476,10 +17476,10 @@
         <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>2.6</v>
+        <v>1.24</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -17609,7 +17609,7 @@
       </c>
       <c r="BH88" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -17646,7 +17646,7 @@
         <v>5.1</v>
       </c>
       <c r="H89" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="I89" t="n">
         <v>1.76</v>
@@ -17667,13 +17667,13 @@
         <v>5.7</v>
       </c>
       <c r="O89" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P89" t="n">
         <v>2.6</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="R89" t="n">
         <v>1.64</v>
@@ -17682,7 +17682,7 @@
         <v>2.46</v>
       </c>
       <c r="T89" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U89" t="n">
         <v>2.5</v>
@@ -17694,85 +17694,85 @@
         <v>0</v>
       </c>
       <c r="X89" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y89" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z89" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA89" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AB89" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AC89" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD89" t="n">
         <v>10</v>
       </c>
       <c r="AE89" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AF89" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AG89" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AH89" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI89" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AJ89" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK89" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL89" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM89" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN89" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO89" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AP89" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AQ89" t="n">
         <v>11.5</v>
       </c>
       <c r="AR89" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AT89" t="n">
         <v>20</v>
       </c>
       <c r="AU89" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AV89" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AV89" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AW89" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX89" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AY89" t="n">
         <v>16.5</v>
@@ -17784,26 +17784,26 @@
         <v>20</v>
       </c>
       <c r="BB89" t="n">
-        <v>13.5</v>
+        <v>4.4</v>
       </c>
       <c r="BC89" t="n">
-        <v>42</v>
+        <v>4.4</v>
       </c>
       <c r="BD89" t="n">
-        <v>38</v>
+        <v>4.4</v>
       </c>
       <c r="BE89" t="n">
-        <v>32</v>
+        <v>4.4</v>
       </c>
       <c r="BF89" t="n">
-        <v>32</v>
+        <v>4.3</v>
       </c>
       <c r="BG89" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="BH89" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -17840,16 +17840,16 @@
         <v>1.3</v>
       </c>
       <c r="H90" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I90" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J90" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="K90" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -17864,10 +17864,10 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>1.25</v>
+        <v>2.92</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -17997,7 +17997,7 @@
       </c>
       <c r="BH90" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -18191,7 +18191,7 @@
       </c>
       <c r="BH91" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -18222,19 +18222,19 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G92" t="n">
         <v>2.5</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I92" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J92" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K92" t="n">
         <v>3.7</v>
@@ -18252,22 +18252,22 @@
         <v>1.27</v>
       </c>
       <c r="P92" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q92" t="n">
         <v>1.83</v>
       </c>
       <c r="R92" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="S92" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="T92" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U92" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V92" t="n">
         <v>0</v>
@@ -18282,31 +18282,31 @@
         <v>14.5</v>
       </c>
       <c r="Z92" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA92" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB92" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC92" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD92" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE92" t="n">
         <v>34</v>
       </c>
       <c r="AF92" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH92" t="n">
         <v>17</v>
-      </c>
-      <c r="AG92" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH92" t="n">
-        <v>16.5</v>
       </c>
       <c r="AI92" t="n">
         <v>42</v>
@@ -18315,22 +18315,22 @@
         <v>36</v>
       </c>
       <c r="AK92" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL92" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM92" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN92" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AO92" t="n">
         <v>28</v>
       </c>
       <c r="AP92" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ92" t="n">
         <v>12.5</v>
@@ -18339,53 +18339,53 @@
         <v>18.5</v>
       </c>
       <c r="AS92" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="AT92" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AU92" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AV92" t="n">
         <v>12</v>
       </c>
       <c r="AW92" t="n">
-        <v>26</v>
+        <v>6.8</v>
       </c>
       <c r="AX92" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AY92" t="n">
         <v>10.5</v>
       </c>
       <c r="AZ92" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="BA92" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BB92" t="n">
-        <v>9.6</v>
+        <v>6.8</v>
       </c>
       <c r="BC92" t="n">
         <v>21</v>
       </c>
       <c r="BD92" t="n">
-        <v>9.6</v>
+        <v>7</v>
       </c>
       <c r="BE92" t="n">
-        <v>60</v>
+        <v>7.6</v>
       </c>
       <c r="BF92" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="BG92" t="n">
         <v>19</v>
       </c>
       <c r="BH92" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -18422,7 +18422,7 @@
         <v>1.4</v>
       </c>
       <c r="H93" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I93" t="n">
         <v>12.5</v>
@@ -18440,13 +18440,13 @@
         <v>1.07</v>
       </c>
       <c r="N93" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O93" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P93" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q93" t="n">
         <v>2</v>
@@ -18461,7 +18461,7 @@
         <v>2.48</v>
       </c>
       <c r="U93" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="V93" t="n">
         <v>0</v>
@@ -18470,10 +18470,10 @@
         <v>0</v>
       </c>
       <c r="X93" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y93" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z93" t="n">
         <v>1000</v>
@@ -18482,25 +18482,25 @@
         <v>1000</v>
       </c>
       <c r="AB93" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC93" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD93" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AE93" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AF93" t="n">
         <v>7</v>
       </c>
       <c r="AG93" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH93" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI93" t="n">
         <v>1000</v>
@@ -18509,25 +18509,25 @@
         <v>10.5</v>
       </c>
       <c r="AK93" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL93" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM93" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN93" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AO93" t="n">
         <v>1000</v>
       </c>
       <c r="AP93" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AQ93" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AR93" t="n">
         <v>36</v>
@@ -18539,16 +18539,16 @@
         <v>6.4</v>
       </c>
       <c r="AU93" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AV93" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AW93" t="n">
         <v>48</v>
       </c>
       <c r="AX93" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AY93" t="n">
         <v>10</v>
@@ -18560,10 +18560,10 @@
         <v>48</v>
       </c>
       <c r="BB93" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="BC93" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="BD93" t="n">
         <v>30</v>
@@ -18572,14 +18572,14 @@
         <v>55</v>
       </c>
       <c r="BF93" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="BG93" t="n">
         <v>55</v>
       </c>
       <c r="BH93" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -18610,22 +18610,22 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G94" t="n">
         <v>1.7</v>
       </c>
       <c r="H94" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="I94" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J94" t="n">
         <v>3.45</v>
       </c>
       <c r="K94" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L94" t="n">
         <v>1.7</v>
@@ -18634,7 +18634,7 @@
         <v>1.16</v>
       </c>
       <c r="N94" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="O94" t="n">
         <v>1.71</v>
@@ -18649,10 +18649,10 @@
         <v>1.14</v>
       </c>
       <c r="S94" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="T94" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="U94" t="n">
         <v>1.46</v>
@@ -18673,10 +18673,10 @@
         <v>70</v>
       </c>
       <c r="AA94" t="n">
-        <v>580</v>
+        <v>530</v>
       </c>
       <c r="AB94" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AC94" t="n">
         <v>9.199999999999999</v>
@@ -18685,7 +18685,7 @@
         <v>970</v>
       </c>
       <c r="AE94" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AF94" t="n">
         <v>7.6</v>
@@ -18727,7 +18727,7 @@
         <v>44</v>
       </c>
       <c r="AS94" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AT94" t="n">
         <v>4.5</v>
@@ -18739,7 +18739,7 @@
         <v>29</v>
       </c>
       <c r="AW94" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX94" t="n">
         <v>7</v>
@@ -18751,7 +18751,7 @@
         <v>25</v>
       </c>
       <c r="BA94" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="BB94" t="n">
         <v>13.5</v>
@@ -18763,17 +18763,17 @@
         <v>38</v>
       </c>
       <c r="BE94" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="BF94" t="n">
         <v>17.5</v>
       </c>
       <c r="BG94" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="BH94" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -18804,22 +18804,22 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="G95" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="H95" t="n">
-        <v>3.45</v>
+        <v>2.82</v>
       </c>
       <c r="I95" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="J95" t="n">
-        <v>2.24</v>
+        <v>2.68</v>
       </c>
       <c r="K95" t="n">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -18834,10 +18834,10 @@
         <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R95" t="n">
         <v>0</v>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="BH95" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -18998,22 +18998,22 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="G96" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="H96" t="n">
-        <v>1.73</v>
+        <v>4.8</v>
       </c>
       <c r="I96" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="J96" t="n">
-        <v>1.73</v>
+        <v>3</v>
       </c>
       <c r="K96" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -19028,10 +19028,10 @@
         <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="R96" t="n">
         <v>0</v>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="BH96" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -19192,16 +19192,16 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G97" t="n">
         <v>1.76</v>
       </c>
       <c r="H97" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I97" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J97" t="n">
         <v>4.1</v>
@@ -19228,10 +19228,10 @@
         <v>1.91</v>
       </c>
       <c r="R97" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S97" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T97" t="n">
         <v>1.87</v>
@@ -19246,13 +19246,13 @@
         <v>0</v>
       </c>
       <c r="X97" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y97" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z97" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AA97" t="n">
         <v>150</v>
@@ -19261,13 +19261,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC97" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD97" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE97" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF97" t="n">
         <v>10.5</v>
@@ -19276,28 +19276,28 @@
         <v>10.5</v>
       </c>
       <c r="AH97" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI97" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ97" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK97" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AL97" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM97" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN97" t="n">
         <v>10.5</v>
       </c>
       <c r="AO97" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AP97" t="n">
         <v>15</v>
@@ -19306,16 +19306,16 @@
         <v>16.5</v>
       </c>
       <c r="AR97" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AS97" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AT97" t="n">
         <v>8.4</v>
       </c>
       <c r="AU97" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AV97" t="n">
         <v>18</v>
@@ -19324,38 +19324,38 @@
         <v>32</v>
       </c>
       <c r="AX97" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AY97" t="n">
         <v>9.4</v>
       </c>
       <c r="AZ97" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="BA97" t="n">
         <v>46</v>
       </c>
       <c r="BB97" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="BC97" t="n">
         <v>16</v>
       </c>
       <c r="BD97" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BE97" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="BF97" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BG97" t="n">
         <v>34</v>
       </c>
       <c r="BH97" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -19392,16 +19392,16 @@
         <v>1.14</v>
       </c>
       <c r="H98" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I98" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="J98" t="n">
         <v>11.5</v>
       </c>
       <c r="K98" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -19416,10 +19416,10 @@
         <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="R98" t="n">
         <v>0</v>
@@ -19549,7 +19549,7 @@
       </c>
       <c r="BH98" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -19580,13 +19580,13 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G99" t="n">
         <v>3.75</v>
       </c>
       <c r="H99" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I99" t="n">
         <v>3.35</v>
@@ -19595,7 +19595,7 @@
         <v>2.3</v>
       </c>
       <c r="K99" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -19613,7 +19613,7 @@
         <v>1.64</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R99" t="n">
         <v>0</v>
@@ -19743,7 +19743,7 @@
       </c>
       <c r="BH99" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -19774,22 +19774,22 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="G100" t="n">
-        <v>2.76</v>
+        <v>2.56</v>
       </c>
       <c r="H100" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="I100" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="J100" t="n">
-        <v>2.26</v>
+        <v>2.92</v>
       </c>
       <c r="K100" t="n">
-        <v>6.2</v>
+        <v>3.95</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
@@ -19804,10 +19804,10 @@
         <v>0</v>
       </c>
       <c r="P100" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="R100" t="n">
         <v>0</v>
@@ -19937,7 +19937,7 @@
       </c>
       <c r="BH100" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -19971,16 +19971,16 @@
         <v>2.04</v>
       </c>
       <c r="G101" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="H101" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I101" t="n">
         <v>4.9</v>
       </c>
       <c r="J101" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="K101" t="n">
         <v>5.2</v>
@@ -19998,10 +19998,10 @@
         <v>0</v>
       </c>
       <c r="P101" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
@@ -20131,7 +20131,7 @@
       </c>
       <c r="BH101" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -20162,10 +20162,10 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1.99</v>
+        <v>1.24</v>
       </c>
       <c r="G102" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="H102" t="n">
         <v>3.35</v>
@@ -20177,7 +20177,7 @@
         <v>2.76</v>
       </c>
       <c r="K102" t="n">
-        <v>5.1</v>
+        <v>950</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -20192,10 +20192,10 @@
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R102" t="n">
         <v>0</v>
@@ -20325,7 +20325,7 @@
       </c>
       <c r="BH102" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -20519,7 +20519,7 @@
       </c>
       <c r="BH103" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -20580,10 +20580,10 @@
         <v>0</v>
       </c>
       <c r="P104" t="n">
-        <v>1.25</v>
+        <v>1.54</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.01</v>
+        <v>2.54</v>
       </c>
       <c r="R104" t="n">
         <v>0</v>
@@ -20713,7 +20713,7 @@
       </c>
       <c r="BH104" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -20774,10 +20774,10 @@
         <v>0</v>
       </c>
       <c r="P105" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R105" t="n">
         <v>0</v>
@@ -20907,7 +20907,7 @@
       </c>
       <c r="BH105" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -20938,22 +20938,22 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2.72</v>
+        <v>2.18</v>
       </c>
       <c r="G106" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="H106" t="n">
-        <v>2.44</v>
+        <v>2.24</v>
       </c>
       <c r="I106" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J106" t="n">
-        <v>3.35</v>
+        <v>1.5</v>
       </c>
       <c r="K106" t="n">
-        <v>3.95</v>
+        <v>4.8</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
@@ -20968,10 +20968,10 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R106" t="n">
         <v>0</v>
@@ -21101,7 +21101,7 @@
       </c>
       <c r="BH106" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -21132,7 +21132,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G107" t="n">
         <v>2.42</v>
@@ -21141,10 +21141,10 @@
         <v>3.35</v>
       </c>
       <c r="I107" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J107" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K107" t="n">
         <v>3.7</v>
@@ -21162,10 +21162,10 @@
         <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>1.64</v>
+        <v>1.77</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R107" t="n">
         <v>0</v>
@@ -21295,7 +21295,7 @@
       </c>
       <c r="BH107" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -21329,7 +21329,7 @@
         <v>3.45</v>
       </c>
       <c r="G108" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="H108" t="n">
         <v>2.44</v>
@@ -21356,10 +21356,10 @@
         <v>0</v>
       </c>
       <c r="P108" t="n">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R108" t="n">
         <v>0</v>
@@ -21489,7 +21489,7 @@
       </c>
       <c r="BH108" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -21683,7 +21683,7 @@
       </c>
       <c r="BH109" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
@@ -21714,16 +21714,16 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="G110" t="n">
         <v>1.66</v>
       </c>
       <c r="H110" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="I110" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="J110" t="n">
         <v>4.3</v>
@@ -21744,10 +21744,10 @@
         <v>0</v>
       </c>
       <c r="P110" t="n">
-        <v>1.99</v>
+        <v>2.2</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="R110" t="n">
         <v>0</v>
@@ -21877,7 +21877,7 @@
       </c>
       <c r="BH110" t="inlineStr">
         <is>
-          <t>2026-02-20 05:10:22</t>
+          <t>2026-02-20 07:40:37</t>
         </is>
       </c>
     </row>
